--- a/UNM_2024/GBS_Aciurina_2024_platemap.xlsx
+++ b/UNM_2024/GBS_Aciurina_2024_platemap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Aciurina_GBS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tparchman/Documents/GitHub/RFseq_projects/UNM_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C69EF5F-B880-8F44-AF30-FFAC50DB6539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3DE97D-5913-584A-B686-DF625E62094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2720" yWindow="2740" windowWidth="43680" windowHeight="24360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plate map" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="191">
   <si>
     <t>COR_CV_V_01</t>
   </si>
@@ -723,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -738,6 +738,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,15 +962,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19:Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="29">
+    <row r="1" spans="1:25" ht="29">
       <c r="A1" s="8" t="s">
         <v>178</v>
       </c>
@@ -985,7 +990,7 @@
       <c r="M1" s="9"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="47">
+    <row r="2" spans="1:25" ht="47">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>1</v>
@@ -1023,8 +1028,33 @@
       <c r="M2" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="47">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="47">
       <c r="A3" s="4" t="s">
         <v>180</v>
       </c>
@@ -1064,8 +1094,35 @@
       <c r="M3" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="47">
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="47">
       <c r="A4" s="4" t="s">
         <v>181</v>
       </c>
@@ -1105,8 +1162,35 @@
       <c r="M4" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="47">
+      <c r="Q4" s="3">
+        <v>2</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="47">
       <c r="A5" s="4" t="s">
         <v>182</v>
       </c>
@@ -1146,8 +1230,35 @@
       <c r="M5" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="47">
+      <c r="Q5" s="3">
+        <v>3</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="47">
       <c r="A6" s="4" t="s">
         <v>183</v>
       </c>
@@ -1187,8 +1298,35 @@
       <c r="M6" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="47">
+      <c r="Q6" s="3">
+        <v>4</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="47">
       <c r="A7" s="4" t="s">
         <v>184</v>
       </c>
@@ -1228,8 +1366,35 @@
       <c r="M7" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="47">
+      <c r="Q7" s="3">
+        <v>5</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="47">
       <c r="A8" s="4" t="s">
         <v>185</v>
       </c>
@@ -1269,8 +1434,35 @@
       <c r="M8" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="47">
+      <c r="Q8" s="3">
+        <v>6</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="47">
       <c r="A9" s="4" t="s">
         <v>186</v>
       </c>
@@ -1310,8 +1502,35 @@
       <c r="M9" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="47">
+      <c r="Q9" s="3">
+        <v>7</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="47">
       <c r="A10" s="4" t="s">
         <v>187</v>
       </c>
@@ -1351,400 +1570,968 @@
       <c r="M10" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="13"/>
-    <row r="12" spans="1:19" ht="29">
-      <c r="A12" s="8" t="s">
+      <c r="Q10" s="3">
+        <v>8</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="47">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="Q11" s="3">
+        <v>9</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="47">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="Q12" s="3">
+        <v>10</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="47">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="Q13" s="3">
+        <v>11</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="47">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="Q14" s="3">
+        <v>12</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="47">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:25" ht="13"/>
+    <row r="17" spans="1:25" ht="29">
+      <c r="A17" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:19" ht="47">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:25" ht="47">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E18" s="3">
         <v>4</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G18" s="3">
         <v>6</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H18" s="3">
         <v>7</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I18" s="3">
         <v>8</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J18" s="3">
         <v>9</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K18" s="3">
         <v>10</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L18" s="3">
         <v>11</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M18" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="47">
-      <c r="A14" s="4" t="s">
+      <c r="Q18" s="2"/>
+      <c r="R18" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="S18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="47">
+      <c r="A19" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="47">
-      <c r="A15" s="4" t="s">
+      <c r="M19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="47">
+      <c r="A20" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L20" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="M15" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="47">
-      <c r="A16" s="4" t="s">
+      <c r="M20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>2</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="47">
+      <c r="A21" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="47">
-      <c r="A17" s="4" t="s">
+      <c r="L21" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>3</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="44" customHeight="1">
+      <c r="A22" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="47">
-      <c r="A18" s="4" t="s">
+      <c r="L22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>4</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="41" customHeight="1">
+      <c r="A23" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="47">
-      <c r="A19" s="4" t="s">
+      <c r="L23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>5</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="36" customHeight="1">
+      <c r="A24" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="47">
-      <c r="A20" s="4" t="s">
+      <c r="L24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>6</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="37" customHeight="1">
+      <c r="A25" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="47">
-      <c r="A21" s="4" t="s">
+      <c r="L25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>7</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="49" customHeight="1">
+      <c r="A26" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
+      <c r="L26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>8</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="45" customHeight="1">
+      <c r="Q27" s="3">
+        <v>9</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="33" customHeight="1">
+      <c r="Q28" s="3">
+        <v>10</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="47" customHeight="1">
+      <c r="Q29" s="3">
+        <v>11</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y29" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="42" customHeight="1">
+      <c r="Q30" s="3">
+        <v>12</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y30" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="32" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:M1"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:M17"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
